--- a/Excelize/Book2.xlsx
+++ b/Excelize/Book2.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
   <bookViews>
     <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" relationships:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,7 +54,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
@@ -61,14 +62,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <date1904 val="false"/>
-  <lang val="en-US"/>
-  <roundedCorners val="false"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="false"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="false"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
           <a:bodyPr anchorCtr="false" rot="0" spcFirstLastPara="false"/>
           <a:p>
             <a:pPr>
@@ -89,11 +90,11 @@
               <a:t>Fruit 3D Clustered Column Chart</a:t>
             </a:r>
           </a:p>
-        </rich>
-      </tx>
-      <overlay val="false"/>
-      <spPr/>
-      <txPr>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="false"/>
+      <c:spPr/>
+      <c:txPr>
         <a:bodyPr anchorCtr="false" rot="0" spcFirstLastPara="false"/>
         <a:p>
           <a:pPr>
@@ -101,136 +102,136 @@
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
-      </txPr>
-    </title>
-    <view3D>
-      <rotX val="15"/>
-      <rotY val="20"/>
-      <rAngAx val="1"/>
-      <perspective val="0"/>
-    </view3D>
-    <floor>
-      <thickness val="0"/>
-    </floor>
-    <sideWall>
-      <thickness val="0"/>
-    </sideWall>
-    <backWall>
-      <thickness val="0"/>
-    </backWall>
-    <plotArea>
-      <bar3DChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <varyColors val="true"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>Sheet1!$A$2</f>
-            </strRef>
-          </tx>
-          <dLbls>
-            <showLegendKey val="false"/>
-            <showVal val="false"/>
-            <showCatName val="false"/>
-            <showSerName val="false"/>
-            <showPercent val="false"/>
-            <showBubbleSize val="false"/>
-            <showLeaderLines val="false"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>Sheet1!$B$1:$D$1</f>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>Sheet1!$B$2:$D$2</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>Sheet1!$A$3</f>
-            </strRef>
-          </tx>
-          <dLbls>
-            <showLegendKey val="false"/>
-            <showVal val="false"/>
-            <showCatName val="false"/>
-            <showSerName val="false"/>
-            <showPercent val="false"/>
-            <showBubbleSize val="false"/>
-            <showLeaderLines val="false"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>Sheet1!$B$1:$D$1</f>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>Sheet1!$B$3:$D$3</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>Sheet1!$A$4</f>
-            </strRef>
-          </tx>
-          <dLbls>
-            <showLegendKey val="false"/>
-            <showVal val="false"/>
-            <showCatName val="false"/>
-            <showSerName val="false"/>
-            <showPercent val="false"/>
-            <showBubbleSize val="false"/>
-            <showLeaderLines val="false"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>Sheet1!$B$1:$D$1</f>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>Sheet1!$B$4:$D$4</f>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showLegendKey val="false"/>
-          <showVal val="false"/>
-          <showCatName val="false"/>
-          <showSerName val="false"/>
-          <showPercent val="false"/>
-          <showBubbleSize val="false"/>
-          <showLeaderLines val="false"/>
-        </dLbls>
-        <axId val="754001152"/>
-        <axId val="753999904"/>
-      </bar3DChart>
-      <catAx>
-        <axId val="754001152"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="false"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="true"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
+      </c:txPr>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="true"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="false"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="false"/>
+            <c:showLeaderLines val="false"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$D$2</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="false"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="false"/>
+            <c:showLeaderLines val="false"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$D$3</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="false"/>
+            <c:showVal val="false"/>
+            <c:showCatName val="false"/>
+            <c:showSerName val="false"/>
+            <c:showPercent val="false"/>
+            <c:showBubbleSize val="false"/>
+            <c:showLeaderLines val="false"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$D$4</c:f>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="false"/>
+          <c:showVal val="false"/>
+          <c:showCatName val="false"/>
+          <c:showSerName val="false"/>
+          <c:showPercent val="false"/>
+          <c:showBubbleSize val="false"/>
+          <c:showLeaderLines val="false"/>
+        </c:dLbls>
+        <c:axId val="754001152"/>
+        <c:axId val="753999904"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="754001152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="true"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
           <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
             <a:solidFill>
               <a:schemeClr val="tx1">
@@ -239,8 +240,8 @@
               </a:schemeClr>
             </a:solidFill>
           </a:ln>
-        </spPr>
-        <txPr>
+        </c:spPr>
+        <c:txPr>
           <a:bodyPr anchor="ctr" anchorCtr="true" rot="-60000000" spcFirstLastPara="true" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:p>
             <a:pPr>
@@ -258,26 +259,26 @@
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
-        </txPr>
-        <crossAx val="753999904"/>
-        <crosses val="autoZero"/>
-        <auto val="true"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="false"/>
-      </catAx>
-      <valAx>
-        <axId val="753999904"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="false"/>
-        <axPos val="l"/>
-        <numFmt formatCode="General" sourceLinked="true"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
+        </c:txPr>
+        <c:crossAx val="753999904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="true"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="false"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="753999904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="false"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="true"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
           <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
             <a:solidFill>
               <a:schemeClr val="tx1">
@@ -286,8 +287,8 @@
               </a:schemeClr>
             </a:solidFill>
           </a:ln>
-        </spPr>
-        <txPr>
+        </c:spPr>
+        <c:txPr>
           <a:bodyPr anchor="ctr" anchorCtr="true" rot="-60000000" spcFirstLastPara="true" vert="horz" vertOverflow="ellipsis" wrap="square"/>
           <a:p>
             <a:pPr>
@@ -305,21 +306,21 @@
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
-        </txPr>
-        <crossAx val="754001152"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="b"/>
-      <overlay val="false"/>
-    </legend>
-    <plotVisOnly val="false"/>
-    <dispBlanksAs val="gap"/>
-    <showDLblsOverMax val="false"/>
-  </chart>
-  <spPr>
+        </c:txPr>
+        <c:crossAx val="754001152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="false"/>
+    </c:legend>
+    <c:plotVisOnly val="false"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="false"/>
+  </c:chart>
+  <c:spPr>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
@@ -331,11 +332,11 @@
         </a:schemeClr>
       </a:solidFill>
     </a:ln>
-  </spPr>
-  <printSettings>
-    <pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.7"/>
-  </printSettings>
-</chartSpace>
+  </c:spPr>
+  <c:printSettings>
+    <c:pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.7"/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,7 +356,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" descr=""/>
+        <xdr:cNvPr id="1" name="Chart 1" descr=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -630,7 +631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
@@ -691,6 +692,7 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId1"/>
 </worksheet>
 </file>